--- a/datf_core/test/s2t/source_parquet_target_parquet_s2t_2.xlsx
+++ b/datf_core/test/s2t/source_parquet_target_parquet_s2t_2.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TigerAnalytics\accelerator\QE_Automated_Testing_Framework\test\s2t\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\s2t\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11688430-3AB7-4B0B-A617-7214BADBE83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7924FF4-58F8-4F53-BD71-6CF4986F129D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Wk/HSFA0ePxYnHuCg2Xu6V8BJrU2qQuyXxP/xiZ5WP2Fm+GLq8mfRGtBZepFB8vcZ29wwi6DpLHCJ+v9K0Ljbw==" workbookSaltValue="Q4lfZdLtn4rXZBfCNOfu/w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F4CBA58-46F7-48AB-BC01-807547223E03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1F4CBA58-46F7-48AB-BC01-807547223E03}"/>
   </bookViews>
   <sheets>
     <sheet name="MappingConfiguration" sheetId="2" r:id="rId1"/>
@@ -423,10 +423,10 @@
     <t>patients_target_parquet_match</t>
   </si>
   <si>
-    <t>/app/test/data/source</t>
-  </si>
-  <si>
-    <t>/app/test/data/stage</t>
+    <t>test/data/source</t>
+  </si>
+  <si>
+    <t>test/data/stage</t>
   </si>
 </sst>
 </file>
@@ -569,9 +569,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -609,7 +609,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -715,7 +715,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -857,7 +857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -871,7 +871,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" defaultGridColor="0" colorId="48" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,8 +1235,8 @@
   </sheetPr>
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" showOutlineSymbols="0" defaultGridColor="0" topLeftCell="A21" colorId="48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:E47"/>
+    <sheetView showGridLines="0" showZeros="0" showOutlineSymbols="0" defaultGridColor="0" topLeftCell="A19" colorId="48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,7 +2176,7 @@
   <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" showOutlineSymbols="0" defaultGridColor="0" colorId="48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G26"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
